--- a/학습자료/단답형/객관식_영어_유의어_Day05.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day05.xlsx
@@ -449,74 +449,74 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>conspicuous
-1. 경의를 표하다, 존경하다
-2. 눈에 띄는, 현저한
-3. 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2, 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>noticeable
-1. 결국, 마침내
-2. 수동적인, 소극적인, 복종적인
-3. 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3, 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>salient
-1. 경의를 표하다, 존경하다
-2. 눈에 띄는, 현저한
-3. 문화적으로, 망설이면서</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2, 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>remarkable
-1. 구성하다
-2. 눈에 띄는, 현저한
-3. 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>striking
 1. 문화적으로, 망설이면서
 2. 수동적인, 소극적인, 복종적인
 3. 눈에 띄는, 현저한</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3, 눈에 띄는, 현저한</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>noticeable
+1. 위험한
+2. 눈에 띄는, 현저한
+3. 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, 눈에 띄는, 현저한</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>salient
+1. 문화적으로, 망설이면서
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 눈에 띄는, 현저한</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3, 눈에 띄는, 현저한</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>remarkable
+1. 눈에 띄는, 현저한
+2. 철저히, 철저하게
+3. 결국, 마침내</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 눈에 띄는, 현저한</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>striking
+1. 철저히, 철저하게
+2. 눈에 띄는, 현저한
+3. 위험한</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 눈에 띄는, 현저한</t>
+          <t>2, 눈에 띄는, 현저한</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>passive
-1. 잠정적으로, 망설이면서
-2. 위험한
-3. 수동적인, 소극적인, 복종적인</t>
+1. 수동적인, 소극적인, 복종적인
+2. 구성하다
+3. 철저히, 철저하게</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 수동적인, 소극적인, 복종적인</t>
+          <t>1, 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>inactive
-1. 수동적인, 소극적인, 복종적인
-2. 결국, 마침내
-3. 구성하다</t>
+1. 문화적으로, 망설이면서
+2. 수동적인, 소극적인, 복종적인
+3. 경의를 표하다, 존경하다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 수동적인, 소극적인, 복종적인</t>
+          <t>2, 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
     </row>
@@ -555,13 +555,13 @@
         <is>
           <t>obedient
 1. 경의를 표하다, 존경하다
-2. 수동적인, 소극적인, 복종적인
-3. 눈에 띄는, 현저한</t>
+2. 문화적으로, 망설이면서
+3. 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 수동적인, 소극적인, 복종적인</t>
+          <t>3, 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>compliant
-1. 철저히, 철저하게
-2. 수동적인, 소극적인, 복종적인
-3. 문화적으로, 망설이면서</t>
+1. 구성하다
+2. 철저히, 철저하게
+3. 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 수동적인, 소극적인, 복종적인</t>
+          <t>3, 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>docile
-1. 구성하다
-2. 눈에 띄는, 현저한
-3. 수동적인, 소극적인, 복종적인</t>
+1. 수동적인, 소극적인, 복종적인
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 문화적으로, 망설이면서</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, 수동적인, 소극적인, 복종적인</t>
+          <t>1, 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>subject
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 구성하다
-3. 수동적인, 소극적인, 복종적인</t>
+1. 결국, 마침내
+2. 수동적인, 소극적인, 복종적인
+3. 구성하다</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 수동적인, 소극적인, 복종적인</t>
+          <t>2, 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
     </row>
@@ -614,479 +614,479 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>vaporous
+1. 눈에 띄는, 현저한
+2. 수동적인, 소극적인, 복종적인
+3. 증기를 내는, 안개가 많은, 공상적인</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3, 증기를 내는, 안개가 많은, 공상적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>misty
+1. 구성하다
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 결국, 마침내</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2, 증기를 내는, 안개가 많은, 공상적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>hazy
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 철저히, 철저하게
+3. 구성하다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1, 증기를 내는, 안개가 많은, 공상적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fanciful
+1. 문화적으로, 망설이면서
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, 증기를 내는, 안개가 많은, 공상적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>visionary
 1. 수동적인, 소극적인, 복종적인
 2. 증기를 내는, 안개가 많은, 공상적인
 3. 구성하다</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>2, 증기를 내는, 안개가 많은, 공상적인</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>misty
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>dangerous
+1. 위험한
+2. 눈에 띄는, 현저한
+3. 결국, 마침내</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1, 위험한</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>risky
+1. 수동적인, 소극적인, 복종적인
+2. 위험한
+3. 구성하다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2, 위험한</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>perilous
+1. 위험한
+2. 결국, 마침내
+3. 철저히, 철저하게</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1, 위험한</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>hazardous
+1. 구성하다
+2. 눈에 띄는, 현저한
+3. 위험한</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3, 위험한</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>precarious
+1. 수동적인, 소극적인, 복종적인
+2. 경의를 표하다, 존경하다
+3. 위험한</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3, 위험한</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>speculative
+1. 위험한
+2. 경의를 표하다, 존경하다
+3. 결국, 마침내</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1, 위험한</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>inside out
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 눈에 띄는, 현저한
+3. 철저히, 철저하게</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3, 철저히, 철저하게</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>thoroughly
+1. 위험한
+2. 철저히, 철저하게
+3. 증기를 내는, 안개가 많은, 공상적인</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2, 철저히, 철저하게</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>completely
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 철저히, 철저하게
+3. 구성하다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2, 철저히, 철저하게</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>comprehensively
+1. 잠정적으로, 망설이면서
+2. 눈에 띄는, 현저한
+3. 철저히, 철저하게</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3, 철저히, 철저하게</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>exhaustively
+1. 구성하다
+2. 잠정적으로, 망설이면서
+3. 철저히, 철저하게</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 철저히, 철저하게</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>eventually
+1. 잠정적으로, 망설이면서
+2. 구성하다
+3. 결국, 마침내</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3, 결국, 마침내</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>finally
+1. 철저히, 철저하게
+2. 잠정적으로, 망설이면서
+3. 결국, 마침내</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3, 결국, 마침내</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ultimately
+1. 문화적으로, 망설이면서
+2. 결국, 마침내
+3. 증기를 내는, 안개가 많은, 공상적인</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2, 결국, 마침내</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>after all
+1. 결국, 마침내
+2. 잠정적으로, 망설이면서
+3. 눈에 띄는, 현저한</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1, 결국, 마침내</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>in the long run
+1. 결국, 마침내
+2. 위험한
+3. 수동적인, 소극적인, 복종적인</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1, 결국, 마침내</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>at last
+1. 문화적으로, 망설이면서
+2. 철저히, 철저하게
+3. 결국, 마침내</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3, 결국, 마침내</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>culturally
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 경의를 표하다, 존경하다
+3. 문화적으로, 망설이면서</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 문화적으로, 망설이면서</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>literately
+1. 눈에 띄는, 현저한
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 문화적으로, 망설이면서</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, 문화적으로, 망설이면서</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>tentatively
+1. 구성하다
+2. 잠정적으로, 망설이면서
+3. 위험한</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2, 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>provisionally
+1. 구성하다
+2. 잠정적으로, 망설이면서
+3. 결국, 마침내</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2, 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>temporarily
+1. 구성하다
+2. 위험한
+3. 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>hesitantly
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 철저히, 철저하게
+3. 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>lingeringly
 1. 경의를 표하다, 존경하다
-2. 눈에 띄는, 현저한
-3. 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>hazy
+2. 잠정적으로, 망설이면서
+3. 문화적으로, 망설이면서</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2, 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>pay tribute to
 1. 경의를 표하다, 존경하다
 2. 잠정적으로, 망설이면서
 3. 증기를 내는, 안개가 많은, 공상적인</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>fanciful
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>honor
 1. 결국, 마침내
-2. 증기를 내는, 안개가 많은, 공상적인
-3. 철저히, 철저하게</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2, 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>visionary
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 수동적인, 소극적인, 복종적인
-3. 문화적으로, 망설이면서</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1, 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>dangerous
-1. 철저히, 철저하게
 2. 문화적으로, 망설이면서
-3. 위험한</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, 위험한</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>risky
-1. 철저히, 철저하게
-2. 위험한
-3. 문화적으로, 망설이면서</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 위험한</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>perilous
-1. 위험한
-2. 구성하다
-3. 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1, 위험한</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>hazardous
-1. 위험한
-2. 눈에 띄는, 현저한
-3. 결국, 마침내</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1, 위험한</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>precarious
-1. 경의를 표하다, 존경하다
-2. 위험한
-3. 철저히, 철저하게</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2, 위험한</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>speculative
-1. 위험한
-2. 증기를 내는, 안개가 많은, 공상적인
-3. 구성하다</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1, 위험한</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>inside out
-1. 잠정적으로, 망설이면서
-2. 위험한
-3. 철저히, 철저하게</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 철저히, 철저하게</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>thoroughly
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 철저히, 철저하게
-3. 구성하다</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2, 철저히, 철저하게</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>completely
-1. 철저히, 철저하게
-2. 잠정적으로, 망설이면서
-3. 위험한</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1, 철저히, 철저하게</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>comprehensively
-1. 철저히, 철저하게
-2. 구성하다
 3. 경의를 표하다, 존경하다</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1, 철저히, 철저하게</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>exhaustively
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 철저히, 철저하게
-3. 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2, 철저히, 철저하게</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>eventually
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 문화적으로, 망설이면서
-3. 결국, 마침내</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>3, 결국, 마침내</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>finally
-1. 잠정적으로, 망설이면서
-2. 수동적인, 소극적인, 복종적인
-3. 결국, 마침내</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3, 결국, 마침내</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ultimately
-1. 수동적인, 소극적인, 복종적인
-2. 잠정적으로, 망설이면서
-3. 결국, 마침내</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3, 결국, 마침내</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>after all
-1. 결국, 마침내
-2. 경의를 표하다, 존경하다
-3. 위험한</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1, 결국, 마침내</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>in the long run
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3, 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>respect
 1. 수동적인, 소극적인, 복종적인
 2. 경의를 표하다, 존경하다
 3. 결국, 마침내</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3, 결국, 마침내</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>at last
-1. 철저히, 철저하게
-2. 수동적인, 소극적인, 복종적인
-3. 결국, 마침내</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 결국, 마침내</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>culturally
-1. 문화적으로, 망설이면서
-2. 수동적인, 소극적인, 복종적인
-3. 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 문화적으로, 망설이면서</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>literately
-1. 경의를 표하다, 존경하다
-2. 잠정적으로, 망설이면서
-3. 문화적으로, 망설이면서</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3, 문화적으로, 망설이면서</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>tentatively
-1. 잠정적으로, 망설이면서
-2. 문화적으로, 망설이면서
-3. 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>provisionally
-1. 수동적인, 소극적인, 복종적인
-2. 잠정적으로, 망설이면서
-3. 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2, 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>temporarily
-1. 잠정적으로, 망설이면서
-2. 증기를 내는, 안개가 많은, 공상적인
-3. 구성하다</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1, 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>hesitantly
-1. 잠정적으로, 망설이면서
-2. 문화적으로, 망설이면서
-3. 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1, 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>lingeringly
-1. 잠정적으로, 망설이면서
-2. 눈에 띄는, 현저한
-3. 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>pay tribute to
-1. 구성하다
-2. 잠정적으로, 망설이면서
-3. 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>3, 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>honor
-1. 잠정적으로, 망설이면서
-2. 철저히, 철저하게
-3. 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3, 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>respect
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 위험한
-3. 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3, 경의를 표하다, 존경하다</t>
+          <t>2, 경의를 표하다, 존경하다</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>esteem
-1. 수동적인, 소극적인, 복종적인
-2. 구성하다
-3. 경의를 표하다, 존경하다</t>
+1. 경의를 표하다, 존경하다
+2. 문화적으로, 망설이면서
+3. 증기를 내는, 안개가 많은, 공상적인</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3, 경의를 표하다, 존경하다</t>
+          <t>1, 경의를 표하다, 존경하다</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>venerate
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 경의를 표하다, 존경하다
-3. 잠정적으로, 망설이면서</t>
+1. 경의를 표하다, 존경하다
+2. 구성하다
+3. 결국, 마침내</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2, 경의를 표하다, 존경하다</t>
+          <t>1, 경의를 표하다, 존경하다</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>admire
-1. 경의를 표하다, 존경하다
-2. 눈에 띄는, 현저한
-3. 수동적인, 소극적인, 복종적인</t>
+1. 잠정적으로, 망설이면서
+2. 경의를 표하다, 존경하다
+3. 문화적으로, 망설이면서</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 경의를 표하다, 존경하다</t>
+          <t>2, 경의를 표하다, 존경하다</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>homage
-1. 경의를 표하다, 존경하다
-2. 증기를 내는, 안개가 많은, 공상적인
+1. 잠정적으로, 망설이면서
+2. 경의를 표하다, 존경하다
 3. 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1, 경의를 표하다, 존경하다</t>
+          <t>2, 경의를 표하다, 존경하다</t>
         </is>
       </c>
     </row>
@@ -1154,8 +1154,8 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>compose
-1. 수동적인, 소극적인, 복종적인
-2. 위험한
+1. 위험한
+2. 결국, 마침내
 3. 구성하다</t>
         </is>
       </c>
@@ -1169,29 +1169,29 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>organize
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 수동적인, 소극적인, 복종적인
-3. 구성하다</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>3, 구성하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>constitute
 1. 철저히, 철저하게
 2. 구성하다
 3. 잠정적으로, 망설이면서</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2, 구성하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>constitute
+1. 구성하다
+2. 수동적인, 소극적인, 복종적인
+3. 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2, 구성하다</t>
+          <t>1, 구성하다</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>comprise
-1. 구성하다
-2. 철저히, 철저하게
-3. 경의를 표하다, 존경하다</t>
+1. 눈에 띄는, 현저한
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 구성하다</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1, 구성하다</t>
+          <t>3, 구성하다</t>
         </is>
       </c>
     </row>
@@ -1214,8 +1214,8 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>compound
-1. 문화적으로, 망설이면서
-2. 수동적인, 소극적인, 복종적인
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 눈에 띄는, 현저한
 3. 구성하다</t>
         </is>
       </c>

--- a/학습자료/단답형/객관식_영어_유의어_Day05.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day05.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>conspicuous
-1. 잠정적으로, 망설이면서
-2. 구성하다
-3. 눈에 띄는, 현저한</t>
+1. 눈에 띄는, 현저한
+2. 위험한
+3. 철저히, 철저하게</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 눈에 띄는, 현저한</t>
+          <t>1, 눈에 띄는, 현저한</t>
         </is>
       </c>
     </row>
@@ -464,26 +464,26 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>noticeable
+1. 수동적인, 소극적인, 복종적인
+2. 눈에 띄는, 현저한
+3. 구성하다</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, 눈에 띄는, 현저한</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>salient
 1. 증기를 내는, 안개가 많은, 공상적인
 2. 철저히, 철저하게
 3. 눈에 띄는, 현저한</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3, 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>salient
-1. 경의를 표하다, 존경하다
-2. 위험한
-3. 눈에 띄는, 현저한</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>3, 눈에 띄는, 현저한</t>
@@ -495,8 +495,8 @@
         <is>
           <t>remarkable
 1. 눈에 띄는, 현저한
-2. 구성하다
-3. 수동적인, 소극적인, 복종적인</t>
+2. 철저히, 철저하게
+3. 구성하다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>striking
-1. 수동적인, 소극적인, 복종적인
-2. 결국, 마침내
-3. 눈에 띄는, 현저한</t>
+1. 눈에 띄는, 현저한
+2. 문화적으로, 망설이면서
+3. 위험한</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 눈에 띄는, 현저한</t>
+          <t>1, 눈에 띄는, 현저한</t>
         </is>
       </c>
     </row>
@@ -524,69 +524,69 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>passive
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 잠정적으로, 망설이면서
+3. 수동적인, 소극적인, 복종적인</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, 수동적인, 소극적인, 복종적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>inactive
+1. 문화적으로, 망설이면서
+2. 경의를 표하다, 존경하다
+3. 수동적인, 소극적인, 복종적인</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3, 수동적인, 소극적인, 복종적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>obedient
+1. 잠정적으로, 망설이면서
+2. 수동적인, 소극적인, 복종적인
+3. 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 수동적인, 소극적인, 복종적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>compliant
 1. 철저히, 철저하게
 2. 결국, 마침내
 3. 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>3, 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>inactive
-1. 수동적인, 소극적인, 복종적인
-2. 잠정적으로, 망설이면서
-3. 결국, 마침내</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 수동적인, 소극적인, 복종적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>obedient
-1. 잠정적으로, 망설이면서
-2. 철저히, 철저하게
-3. 수동적인, 소극적인, 복종적인</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 수동적인, 소극적인, 복종적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>compliant
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>docile
 1. 경의를 표하다, 존경하다
 2. 수동적인, 소극적인, 복종적인
-3. 위험한</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2, 수동적인, 소극적인, 복종적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>docile
-1. 문화적으로, 망설이면서
-2. 수동적인, 소극적인, 복종적인
-3. 위험한</t>
+3. 철저히, 철저하게</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>subject
-1. 문화적으로, 망설이면서
-2. 수동적인, 소극적인, 복종적인
-3. 경의를 표하다, 존경하다</t>
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 경의를 표하다, 존경하다
+3. 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 수동적인, 소극적인, 복종적인</t>
+          <t>3, 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>vaporous
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 수동적인, 소극적인, 복종적인
-3. 위험한</t>
+1. 경의를 표하다, 존경하다
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 잠정적으로, 망설이면서</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 증기를 내는, 안개가 많은, 공상적인</t>
+          <t>2, 증기를 내는, 안개가 많은, 공상적인</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>hazy
-1. 눈에 띄는, 현저한
-2. 잠정적으로, 망설이면서
-3. 증기를 내는, 안개가 많은, 공상적인</t>
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 결국, 마침내
+3. 문화적으로, 망설이면서</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3, 증기를 내는, 안개가 많은, 공상적인</t>
+          <t>1, 증기를 내는, 안개가 많은, 공상적인</t>
         </is>
       </c>
     </row>
@@ -659,29 +659,29 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>fanciful
-1. 위험한
-2. 결국, 마침내
-3. 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3, 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>visionary
 1. 위험한
 2. 수동적인, 소극적인, 복종적인
 3. 증기를 내는, 안개가 많은, 공상적인</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3, 증기를 내는, 안개가 많은, 공상적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>visionary
+1. 경의를 표하다, 존경하다
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 철저히, 철저하게</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3, 증기를 내는, 안개가 많은, 공상적인</t>
+          <t>2, 증기를 내는, 안개가 많은, 공상적인</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>dangerous
-1. 철저히, 철저하게
-2. 결국, 마침내
-3. 위험한</t>
+1. 눈에 띄는, 현저한
+2. 위험한
+3. 수동적인, 소극적인, 복종적인</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 위험한</t>
+          <t>2, 위험한</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>risky
-1. 위험한
-2. 증기를 내는, 안개가 많은, 공상적인
+1. 구성하다
+2. 위험한
 3. 철저히, 철저하게</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 위험한</t>
+          <t>2, 위험한</t>
         </is>
       </c>
     </row>
@@ -719,44 +719,44 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>perilous
+1. 경의를 표하다, 존경하다
+2. 위험한
+3. 철저히, 철저하게</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2, 위험한</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>hazardous
+1. 문화적으로, 망설이면서
+2. 위험한
+3. 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2, 위험한</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>precarious
 1. 위험한
 2. 수동적인, 소극적인, 복종적인
-3. 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+3. 문화적으로, 망설이면서</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>1, 위험한</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>hazardous
-1. 철저히, 철저하게
-2. 경의를 표하다, 존경하다
-3. 위험한</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3, 위험한</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>precarious
-1. 수동적인, 소극적인, 복종적인
-2. 철저히, 철저하게
-3. 위험한</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3, 위험한</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>speculative
-1. 위험한
-2. 문화적으로, 망설이면서
-3. 눈에 띄는, 현저한</t>
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 눈에 띄는, 현저한
+3. 위험한</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 위험한</t>
+          <t>3, 위험한</t>
         </is>
       </c>
     </row>
@@ -779,39 +779,39 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>inside out
+1. 위험한
+2. 구성하다
+3. 철저히, 철저하게</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3, 철저히, 철저하게</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>thoroughly
+1. 결국, 마침내
+2. 철저히, 철저하게
+3. 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2, 철저히, 철저하게</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>completely
 1. 눈에 띄는, 현저한
 2. 철저히, 철저하게
-3. 증기를 내는, 안개가 많은, 공상적인</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2, 철저히, 철저하게</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>thoroughly
-1. 눈에 띄는, 현저한
-2. 철저히, 철저하게
-3. 구성하다</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2, 철저히, 철저하게</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>completely
-1. 위험한
-2. 철저히, 철저하게
-3. 수동적인, 소극적인, 복종적인</t>
+3. 문화적으로, 망설이면서</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -824,7 +824,7 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>comprehensively
-1. 경의를 표하다, 존경하다
+1. 수동적인, 소극적인, 복종적인
 2. 잠정적으로, 망설이면서
 3. 철저히, 철저하게</t>
         </is>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>exhaustively
-1. 철저히, 철저하게
-2. 위험한
-3. 수동적인, 소극적인, 복종적인</t>
+1. 잠정적으로, 망설이면서
+2. 구성하다
+3. 철저히, 철저하게</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 철저히, 철저하게</t>
+          <t>3, 철저히, 철저하게</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>eventually
-1. 수동적인, 소극적인, 복종적인
-2. 결국, 마침내
-3. 구성하다</t>
+1. 결국, 마침내
+2. 위험한
+3. 경의를 표하다, 존경하다</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, 결국, 마침내</t>
+          <t>1, 결국, 마침내</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>finally
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 구성하다
-3. 결국, 마침내</t>
+1. 눈에 띄는, 현저한
+2. 결국, 마침내
+3. 문화적으로, 망설이면서</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3, 결국, 마침내</t>
+          <t>2, 결국, 마침내</t>
         </is>
       </c>
     </row>
@@ -885,8 +885,8 @@
         <is>
           <t>ultimately
 1. 결국, 마침내
-2. 구성하다
-3. 위험한</t>
+2. 위험한
+3. 구성하다</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>after all
-1. 결국, 마침내
-2. 철저히, 철저하게
-3. 증기를 내는, 안개가 많은, 공상적인</t>
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 잠정적으로, 망설이면서
+3. 결국, 마침내</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1, 결국, 마침내</t>
+          <t>3, 결국, 마침내</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>in the long run
-1. 수동적인, 소극적인, 복종적인
-2. 결국, 마침내
-3. 철저히, 철저하게</t>
+1. 결국, 마침내
+2. 수동적인, 소극적인, 복종적인
+3. 경의를 표하다, 존경하다</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 결국, 마침내</t>
+          <t>1, 결국, 마침내</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>at last
-1. 잠정적으로, 망설이면서
-2. 문화적으로, 망설이면서
-3. 결국, 마침내</t>
+1. 결국, 마침내
+2. 눈에 띄는, 현저한
+3. 문화적으로, 망설이면서</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3, 결국, 마침내</t>
+          <t>1, 결국, 마침내</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>culturally
-1. 문화적으로, 망설이면서
-2. 철저히, 철저하게
-3. 잠정적으로, 망설이면서</t>
+1. 구성하다
+2. 문화적으로, 망설이면서
+3. 경의를 표하다, 존경하다</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1, 문화적으로, 망설이면서</t>
+          <t>2, 문화적으로, 망설이면서</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>literately
-1. 문화적으로, 망설이면서
-2. 잠정적으로, 망설이면서
-3. 철저히, 철저하게</t>
+1. 경의를 표하다, 존경하다
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 문화적으로, 망설이면서</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1, 문화적으로, 망설이면서</t>
+          <t>3, 문화적으로, 망설이면서</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>tentatively
-1. 잠정적으로, 망설이면서
-2. 증기를 내는, 안개가 많은, 공상적인
-3. 철저히, 철저하게</t>
+1. 문화적으로, 망설이면서
+2. 구성하다
+3. 잠정적으로, 망설이면서</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1, 잠정적으로, 망설이면서</t>
+          <t>3, 잠정적으로, 망설이면서</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>provisionally
-1. 눈에 띄는, 현저한
-2. 철저히, 철저하게
-3. 잠정적으로, 망설이면서</t>
+1. 잠정적으로, 망설이면서
+2. 눈에 띄는, 현저한
+3. 구성하다</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3, 잠정적으로, 망설이면서</t>
+          <t>1, 잠정적으로, 망설이면서</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>temporarily
-1. 잠정적으로, 망설이면서
-2. 위험한
-3. 증기를 내는, 안개가 많은, 공상적인</t>
+1. 증기를 내는, 안개가 많은, 공상적인
+2. 잠정적으로, 망설이면서
+3. 눈에 띄는, 현저한</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1, 잠정적으로, 망설이면서</t>
+          <t>2, 잠정적으로, 망설이면서</t>
         </is>
       </c>
     </row>
@@ -1019,8 +1019,8 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>hesitantly
-1. 증기를 내는, 안개가 많은, 공상적인
-2. 눈에 띄는, 현저한
+1. 눈에 띄는, 현저한
+2. 문화적으로, 망설이면서
 3. 잠정적으로, 망설이면서</t>
         </is>
       </c>
@@ -1036,7 +1036,7 @@
           <t>lingeringly
 1. 잠정적으로, 망설이면서
 2. 철저히, 철저하게
-3. 결국, 마침내</t>
+3. 경의를 표하다, 존경하다</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1049,24 +1049,24 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>pay tribute to
+1. 눈에 띄는, 현저한
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3, 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>honor
 1. 경의를 표하다, 존경하다
 2. 잠정적으로, 망설이면서
-3. 철저히, 철저하게</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1, 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>honor
-1. 경의를 표하다, 존경하다
-2. 눈에 띄는, 현저한
-3. 증기를 내는, 안개가 많은, 공상적인</t>
+3. 구성하다</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1079,29 +1079,29 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>respect
-1. 잠정적으로, 망설이면서
+1. 결국, 마침내
+2. 눈에 띄는, 현저한
+3. 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>esteem
+1. 수동적인, 소극적인, 복종적인
 2. 경의를 표하다, 존경하다
 3. 문화적으로, 망설이면서</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>2, 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>esteem
-1. 결국, 마침내
-2. 철저히, 철저하게
-3. 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3, 경의를 표하다, 존경하다</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         <is>
           <t>venerate
 1. 경의를 표하다, 존경하다
-2. 증기를 내는, 안개가 많은, 공상적인
+2. 구성하다
 3. 위험한</t>
         </is>
       </c>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>admire
-1. 경의를 표하다, 존경하다
-2. 철저히, 철저하게
-3. 잠정적으로, 망설이면서</t>
+1. 결국, 마침내
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 경의를 표하다, 존경하다</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 경의를 표하다, 존경하다</t>
+          <t>3, 경의를 표하다, 존경하다</t>
         </is>
       </c>
     </row>
@@ -1139,38 +1139,38 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>homage
+1. 구성하다
+2. 수동적인, 소극적인, 복종적인
+3. 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3, 경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>compose
+1. 구성하다
+2. 증기를 내는, 안개가 많은, 공상적인
+3. 눈에 띄는, 현저한</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1, 구성하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>organize
 1. 증기를 내는, 안개가 많은, 공상적인
 2. 경의를 표하다, 존경하다
-3. 잠정적으로, 망설이면서</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2, 경의를 표하다, 존경하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>compose
-1. 구성하다
-2. 결국, 마침내
-3. 철저히, 철저하게</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1, 구성하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>organize
-1. 문화적으로, 망설이면서
-2. 수동적인, 소극적인, 복종적인
 3. 구성하다</t>
         </is>
       </c>
@@ -1184,44 +1184,44 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>constitute
-1. 결국, 마침내
-2. 철저히, 철저하게
-3. 구성하다</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>3, 구성하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>comprise
-1. 구성하다
-2. 잠정적으로, 망설이면서
-3. 눈에 띄는, 현저한</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1, 구성하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>compound
 1. 철저히, 철저하게
 2. 위험한
 3. 구성하다</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3, 구성하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>comprise
+1. 구성하다
+2. 위험한
+3. 잠정적으로, 망설이면서</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1, 구성하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>compound
+1. 경의를 표하다, 존경하다
+2. 구성하다
+3. 결국, 마침내</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3, 구성하다</t>
+          <t>2, 구성하다</t>
         </is>
       </c>
     </row>
